--- a/xls/Four_recommendations.xlsx
+++ b/xls/Four_recommendations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usi365-my.sharepoint.com/personal/cinism_usi_ch/Documents/code/004_Characteristic_Of_Code_Replication_Package/Website/ICSE22_replication/xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usi365-my.sharepoint.com/personal/cinism_usi_ch/Documents/code/004_Characteristic_Of_Code_Replication_Package/Website/code-recommenders.github.io/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="11_2D8FB22614D9856A75BAC250946EE48913096B0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6658AC30-FEC6-CA4D-8C58-F84B25816523}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="11_2D8FB22614D9856A75BAC250946EE48913096B0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D3DD79A-235B-1147-A597-A2597650031E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,9 +510,6 @@
     <t>Retrieval-based Code Completion</t>
   </si>
   <si>
-    <t>DL-based Code Completion</t>
-  </si>
-  <si>
     <t>Natural Language to Code Translation</t>
   </si>
   <si>
@@ -529,6 +526,9 @@
   </si>
   <si>
     <t>None Analysis</t>
+  </si>
+  <si>
+    <t>T5 model</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,7 @@
   <dimension ref="A1:V151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B8" sqref="B8:B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -1062,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1090,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -1244,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1286,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1356,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1370,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1468,7 +1468,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -1552,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -1566,7 +1566,7 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1594,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1622,7 +1622,7 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -1720,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -1748,7 +1748,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1818,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1832,7 +1832,7 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -1846,7 +1846,7 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -1860,7 +1860,7 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1874,7 +1874,7 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1888,7 +1888,7 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -1902,7 +1902,7 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -1916,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1930,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -1958,7 +1958,7 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1972,7 +1972,7 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1986,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -2000,7 +2000,7 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -2014,7 +2014,7 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -2028,7 +2028,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2056,7 +2056,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -2070,7 +2070,7 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2084,7 +2084,7 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -2098,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2112,7 +2112,7 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -2126,7 +2126,7 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2196,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -2210,7 +2210,7 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -2238,7 +2238,7 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2336,7 +2336,7 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -2392,7 +2392,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -2420,7 +2420,7 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2434,7 +2434,7 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -2518,7 +2518,7 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
@@ -2532,7 +2532,7 @@
         <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2574,7 +2574,7 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
@@ -2588,7 +2588,7 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2602,7 +2602,7 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2630,7 +2630,7 @@
         <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
@@ -2644,7 +2644,7 @@
         <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2658,7 +2658,7 @@
         <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2672,7 +2672,7 @@
         <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C125" t="s">
         <v>3</v>
@@ -2728,7 +2728,7 @@
         <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2826,7 +2826,7 @@
         <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2840,7 +2840,7 @@
         <v>27</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2854,7 +2854,7 @@
         <v>27</v>
       </c>
       <c r="B138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
@@ -2882,7 +2882,7 @@
         <v>28</v>
       </c>
       <c r="B140" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2896,7 +2896,7 @@
         <v>28</v>
       </c>
       <c r="B141" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>29</v>
       </c>
       <c r="B143" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2952,7 +2952,7 @@
         <v>30</v>
       </c>
       <c r="B145" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C145" t="s">
         <v>3</v>
@@ -2966,7 +2966,7 @@
         <v>30</v>
       </c>
       <c r="B146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C146" t="s">
         <v>3</v>
@@ -2980,7 +2980,7 @@
         <v>30</v>
       </c>
       <c r="B147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C147" t="s">
         <v>3</v>
@@ -2994,7 +2994,7 @@
         <v>30</v>
       </c>
       <c r="B148" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C148" t="s">
         <v>3</v>
@@ -3008,7 +3008,7 @@
         <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3022,7 +3022,7 @@
         <v>30</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C150" t="s">
         <v>3</v>
@@ -3036,7 +3036,7 @@
         <v>30</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C151" t="s">
         <v>3</v>
